--- a/ins_generate/CU_uprogs/CU.xlsx
+++ b/ins_generate/CU_uprogs/CU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\作业人\机组课设\model_machine\ins_generate\CU_uprogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3743D51F-6EA2-43F1-950C-93CA57977AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34836563-BD70-4A8A-8984-3211C9C117AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,10 +159,6 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWD</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -535,6 +531,10 @@
       </rPr>
       <t>9</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSW</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1160,20 +1160,20 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1533,14 +1533,14 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="8" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="5" customWidth="1"/>
@@ -1550,81 +1550,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>43</v>
+      <c r="D1" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>61</v>
+        <v>40</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="9" t="s">
-        <v>57</v>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -1638,8 +1638,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>59</v>
+      <c r="A3" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1647,8 +1647,8 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>58</v>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -1656,7 +1656,7 @@
       <c r="F3" s="4">
         <v>11</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>110</v>
       </c>
       <c r="H3" s="3">
@@ -1674,7 +1674,7 @@
       <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>0</v>
       </c>
       <c r="N3" s="4">
@@ -1688,15 +1688,15 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>58</v>
+      <c r="D4" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1704,7 +1704,7 @@
       <c r="F4" s="4">
         <v>11</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>111</v>
       </c>
       <c r="H4" s="3">
@@ -1722,7 +1722,7 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>0</v>
       </c>
       <c r="N4" s="4">
@@ -1736,15 +1736,15 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>58</v>
+      <c r="D5" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1752,7 +1752,7 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>101</v>
       </c>
       <c r="H5" s="3">
@@ -1770,7 +1770,7 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>0</v>
       </c>
       <c r="N5" s="4">
@@ -1784,15 +1784,15 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>58</v>
+      <c r="D6" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
@@ -1800,7 +1800,7 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>100</v>
       </c>
       <c r="H6" s="3">
@@ -1818,7 +1818,7 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>0</v>
       </c>
       <c r="N6" s="4">
@@ -1832,15 +1832,15 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>58</v>
+      <c r="D7" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1848,7 +1848,7 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="3">
@@ -1866,7 +1866,7 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>1</v>
       </c>
       <c r="N7" s="4">
@@ -1880,8 +1880,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>49</v>
+      <c r="A8" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1889,8 +1889,8 @@
       <c r="C8" s="4">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>58</v>
+      <c r="D8" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1898,7 +1898,7 @@
       <c r="F8" s="4">
         <v>11</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>110</v>
       </c>
       <c r="H8" s="3">
@@ -1916,7 +1916,7 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>0</v>
       </c>
       <c r="N8" s="4">
@@ -1930,15 +1930,15 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="4">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>58</v>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1946,7 +1946,7 @@
       <c r="F9" s="4">
         <v>11</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>111</v>
       </c>
       <c r="H9" s="3">
@@ -1964,7 +1964,7 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>0</v>
       </c>
       <c r="N9" s="4">
@@ -1978,15 +1978,15 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4">
         <v>12</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>58</v>
+      <c r="D10" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1994,7 +1994,7 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>101</v>
       </c>
       <c r="H10" s="3">
@@ -2012,7 +2012,7 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="6">
         <v>0</v>
       </c>
       <c r="N10" s="4">
@@ -2026,15 +2026,15 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="4">
         <v>13</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>58</v>
+      <c r="D11" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -2042,7 +2042,7 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>110</v>
       </c>
       <c r="H11" s="3">
@@ -2060,7 +2060,7 @@
       <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="6">
         <v>0</v>
       </c>
       <c r="N11" s="4">
@@ -2074,15 +2074,15 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="9"/>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>58</v>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -2090,7 +2090,7 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>101</v>
       </c>
       <c r="H12" s="3">
@@ -2108,7 +2108,7 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>0</v>
       </c>
       <c r="N12" s="4">
@@ -2122,15 +2122,15 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="4">
         <v>15</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>58</v>
+      <c r="D13" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="4">
         <v>10</v>
@@ -2138,7 +2138,7 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="3">
@@ -2156,7 +2156,7 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <v>0</v>
       </c>
       <c r="N13" s="4">
@@ -2170,15 +2170,15 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4">
         <v>16</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>58</v>
+      <c r="D14" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -2186,7 +2186,7 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>1</v>
       </c>
       <c r="H14" s="3">
@@ -2204,7 +2204,7 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="6">
         <v>10</v>
       </c>
       <c r="N14" s="4">
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>50</v>
+      <c r="A15" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -2227,8 +2227,8 @@
       <c r="C15" s="4">
         <v>20</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>58</v>
+      <c r="D15" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -2236,7 +2236,7 @@
       <c r="F15" s="4">
         <v>11</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>110</v>
       </c>
       <c r="H15" s="3">
@@ -2254,7 +2254,7 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="6">
         <v>0</v>
       </c>
       <c r="N15" s="4">
@@ -2268,15 +2268,15 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>21</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>58</v>
+      <c r="D16" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -2284,7 +2284,7 @@
       <c r="F16" s="4">
         <v>11</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>111</v>
       </c>
       <c r="H16" s="3">
@@ -2302,7 +2302,7 @@
       <c r="L16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="6">
         <v>0</v>
       </c>
       <c r="N16" s="4">
@@ -2316,15 +2316,15 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="4">
         <v>22</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>58</v>
+      <c r="D17" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>101</v>
       </c>
       <c r="H17" s="3">
@@ -2350,7 +2350,7 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="6">
         <v>0</v>
       </c>
       <c r="N17" s="4">
@@ -2364,15 +2364,15 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4">
         <v>23</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>58</v>
+      <c r="D18" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E18" s="4">
         <v>10</v>
@@ -2380,7 +2380,7 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>110</v>
       </c>
       <c r="H18" s="3">
@@ -2398,7 +2398,7 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="6">
         <v>0</v>
       </c>
       <c r="N18" s="4">
@@ -2412,15 +2412,15 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4">
         <v>24</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>58</v>
+      <c r="D19" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -2428,7 +2428,7 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>101</v>
       </c>
       <c r="H19" s="3">
@@ -2446,7 +2446,7 @@
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>0</v>
       </c>
       <c r="N19" s="4">
@@ -2460,15 +2460,15 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>25</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>58</v>
+      <c r="D20" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="4">
         <v>10</v>
@@ -2476,7 +2476,7 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>1</v>
       </c>
       <c r="H20" s="3">
@@ -2494,7 +2494,7 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="6">
         <v>0</v>
       </c>
       <c r="N20" s="4">
@@ -2508,15 +2508,15 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4">
         <v>26</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>58</v>
+      <c r="D21" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -2524,7 +2524,7 @@
       <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>1</v>
       </c>
       <c r="H21" s="3">
@@ -2542,7 +2542,7 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="6">
         <v>10</v>
       </c>
       <c r="N21" s="4">
@@ -2557,7 +2557,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -2565,8 +2565,8 @@
       <c r="C22" s="4">
         <v>30</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>58</v>
+      <c r="D22" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2574,7 +2574,7 @@
       <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>1</v>
       </c>
       <c r="H22" s="3">
@@ -2592,7 +2592,7 @@
       <c r="L22" s="3">
         <v>1</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="6">
         <v>0</v>
       </c>
       <c r="N22" s="4">
@@ -2606,8 +2606,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>52</v>
+      <c r="A23" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -2615,8 +2615,8 @@
       <c r="C23" s="4">
         <v>40</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>58</v>
+      <c r="D23" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -2624,7 +2624,7 @@
       <c r="F23" s="4">
         <v>11</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>110</v>
       </c>
       <c r="H23" s="3">
@@ -2642,7 +2642,7 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="6">
         <v>0</v>
       </c>
       <c r="N23" s="4">
@@ -2656,15 +2656,15 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="9"/>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="4">
         <v>41</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>58</v>
+      <c r="D24" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2672,7 +2672,7 @@
       <c r="F24" s="4">
         <v>0</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>101</v>
       </c>
       <c r="H24" s="3">
@@ -2690,7 +2690,7 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="6">
         <v>0</v>
       </c>
       <c r="N24" s="4">
@@ -2704,15 +2704,15 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="4">
         <v>42</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>58</v>
+      <c r="D25" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E25" s="4">
         <v>11</v>
@@ -2720,7 +2720,7 @@
       <c r="F25" s="4">
         <v>11</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>111</v>
       </c>
       <c r="H25" s="3">
@@ -2738,7 +2738,7 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="6">
         <v>0</v>
       </c>
       <c r="N25" s="4">
@@ -2752,15 +2752,15 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4">
         <v>43</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>58</v>
+      <c r="D26" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2768,7 +2768,7 @@
       <c r="F26" s="4">
         <v>0</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>1</v>
       </c>
       <c r="H26" s="3">
@@ -2786,7 +2786,7 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="6">
         <v>10</v>
       </c>
       <c r="N26" s="4">
@@ -2800,8 +2800,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>53</v>
+      <c r="A27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -2809,8 +2809,8 @@
       <c r="C27" s="4">
         <v>50</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>58</v>
+      <c r="D27" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -2818,7 +2818,7 @@
       <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
         <v>0</v>
       </c>
       <c r="H27" s="3">
@@ -2836,7 +2836,7 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="6">
         <v>0</v>
       </c>
       <c r="N27" s="4">
@@ -2850,15 +2850,15 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="4">
         <v>51</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>58</v>
+      <c r="D28" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -2866,7 +2866,7 @@
       <c r="F28" s="4">
         <v>0</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>1</v>
       </c>
       <c r="H28" s="3">
@@ -2884,7 +2884,7 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="6">
         <v>10</v>
       </c>
       <c r="N28" s="4">
@@ -2898,8 +2898,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>54</v>
+      <c r="A29" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -2907,8 +2907,8 @@
       <c r="C29" s="4">
         <v>60</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>58</v>
+      <c r="D29" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -2916,7 +2916,7 @@
       <c r="F29" s="4">
         <v>11</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>110</v>
       </c>
       <c r="H29" s="3">
@@ -2934,7 +2934,7 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="6">
         <v>0</v>
       </c>
       <c r="N29" s="4">
@@ -2948,15 +2948,15 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="4">
         <v>61</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>58</v>
+      <c r="D30" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2964,7 +2964,7 @@
       <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <v>101</v>
       </c>
       <c r="H30" s="3">
@@ -2982,7 +2982,7 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="6">
         <v>0</v>
       </c>
       <c r="N30" s="4">
@@ -2996,15 +2996,15 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="4">
         <v>62</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>58</v>
+      <c r="D31" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E31" s="4">
         <v>10</v>
@@ -3012,7 +3012,7 @@
       <c r="F31" s="4">
         <v>11</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <v>111</v>
       </c>
       <c r="H31" s="3">
@@ -3030,7 +3030,7 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="6">
         <v>0</v>
       </c>
       <c r="N31" s="4">
@@ -3044,15 +3044,15 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="9"/>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="4">
         <v>63</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>58</v>
+      <c r="D32" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -3060,7 +3060,7 @@
       <c r="F32" s="4">
         <v>0</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="6">
         <v>1</v>
       </c>
       <c r="H32" s="3">
@@ -3078,7 +3078,7 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="6">
         <v>10</v>
       </c>
       <c r="N32" s="4">
@@ -3092,8 +3092,8 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>55</v>
+      <c r="A33" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -3101,8 +3101,8 @@
       <c r="C33" s="4">
         <v>70</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>58</v>
+      <c r="D33" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -3110,7 +3110,7 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="3">
@@ -3128,7 +3128,7 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="6">
         <v>0</v>
       </c>
       <c r="N33" s="4">
@@ -3142,15 +3142,15 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
+      <c r="A34" s="9"/>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="4">
         <v>71</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>58</v>
+      <c r="D34" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -3158,7 +3158,7 @@
       <c r="F34" s="4">
         <v>0</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="6">
         <v>1</v>
       </c>
       <c r="H34" s="3">
@@ -3176,7 +3176,7 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="6">
         <v>10</v>
       </c>
       <c r="N34" s="4">
@@ -3190,8 +3190,8 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
+      <c r="A35" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -3199,8 +3199,8 @@
       <c r="C35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>58</v>
+      <c r="D35" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -3208,7 +3208,7 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>0</v>
       </c>
       <c r="H35" s="3">
@@ -3226,7 +3226,7 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="6">
         <v>0</v>
       </c>
       <c r="N35" s="4">
@@ -3240,15 +3240,15 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
+      <c r="A36" s="9"/>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>58</v>
+      <c r="D36" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -3256,7 +3256,7 @@
       <c r="F36" s="4">
         <v>0</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="6">
         <v>1</v>
       </c>
       <c r="H36" s="3">
@@ -3274,7 +3274,7 @@
       <c r="L36" s="3">
         <v>0</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="6">
         <v>10</v>
       </c>
       <c r="N36" s="4">
@@ -3288,10 +3288,10 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D37" s="9"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D38" s="9"/>
+      <c r="D38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
